--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdEmp.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdEmp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F0A208-EFC8-49E4-A720-4919D442011F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27C2963-A904-4F89-81D9-9BE3D20B6D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="336">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1261,6 +1261,38 @@
 5:退休離職
 9:未報聘/內勤</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findCenterCodeAndAgStatusCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmployeeNoLikeAndAgStatusCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findFullnameLikeAndAgStatusCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findEmployeeNoAndAgStatusCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CenterCode = , AND AgStatusCode = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EmployeeNo % , AND AgStatusCode = </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Fullname % , AND AgStatusCode = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EmployeeNo &gt;= ,AND EmployeeNo &lt;= , AND AgStatusCode = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1841,8 +1873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4581,11 +4613,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4714,6 +4746,50 @@
         <v>270</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdEmp.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdEmp.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27C2963-A904-4F89-81D9-9BE3D20B6D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="340">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -574,10 +573,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>InputDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>InputUser</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1294,11 +1289,31 @@
     <t xml:space="preserve">EmployeeNo &gt;= ,AND EmployeeNo &lt;= , AND AgStatusCode = </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>findAgentCodeFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AgentCode =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InputDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmployeeNo ASC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InputDate Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1535,7 +1550,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1626,23 +1641,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1678,23 +1676,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1870,11 +1851,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1907,7 +1888,7 @@
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>11</v>
@@ -1922,7 +1903,7 @@
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>19</v>
@@ -2033,7 +2014,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>71</v>
@@ -2054,20 +2035,20 @@
         <v>3</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>100</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E12" s="18">
         <v>40</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2075,13 +2056,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E13" s="18">
         <v>10</v>
@@ -2094,13 +2075,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E14" s="18">
         <v>20</v>
@@ -2113,7 +2094,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>106</v>
@@ -2132,13 +2113,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>107</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E16" s="18">
         <v>10</v>
@@ -2151,13 +2132,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>108</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E17" s="18">
         <v>20</v>
@@ -2170,7 +2151,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>109</v>
@@ -2189,13 +2170,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>110</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E19" s="18">
         <v>10</v>
@@ -2208,13 +2189,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>111</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E20" s="18">
         <v>20</v>
@@ -2227,7 +2208,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>112</v>
@@ -2246,13 +2227,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>113</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E22" s="18">
         <v>20</v>
@@ -2265,7 +2246,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>114</v>
@@ -2284,13 +2265,13 @@
         <v>15</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>115</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E24" s="18">
         <v>20</v>
@@ -2316,7 +2297,7 @@
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -2324,10 +2305,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>3</v>
@@ -2406,14 +2387,14 @@
         <v>29</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E30" s="18">
         <v>8</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -2421,7 +2402,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>30</v>
@@ -2459,13 +2440,13 @@
         <v>24</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>156</v>
+        <v>337</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>32</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E33" s="18">
         <v>8</v>
@@ -2478,7 +2459,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>33</v>
@@ -2497,7 +2478,7 @@
         <v>26</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>21</v>
@@ -2510,7 +2491,7 @@
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -2518,20 +2499,20 @@
         <v>27</v>
       </c>
       <c r="B36" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C36" s="18" t="s">
-        <v>159</v>
-      </c>
       <c r="D36" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E36" s="18">
         <v>8</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2539,13 +2520,13 @@
         <v>28</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>34</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E37" s="18">
         <v>8</v>
@@ -2558,7 +2539,7 @@
         <v>29</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>35</v>
@@ -2577,13 +2558,13 @@
         <v>30</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E39" s="18">
         <v>8</v>
@@ -2596,7 +2577,7 @@
         <v>31</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>37</v>
@@ -2615,7 +2596,7 @@
         <v>32</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>38</v>
@@ -2634,7 +2615,7 @@
         <v>33</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>39</v>
@@ -2653,7 +2634,7 @@
         <v>34</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>40</v>
@@ -2672,7 +2653,7 @@
         <v>35</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>41</v>
@@ -2691,7 +2672,7 @@
         <v>36</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>42</v>
@@ -2710,13 +2691,13 @@
         <v>37</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>43</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E46" s="18">
         <v>8</v>
@@ -2729,7 +2710,7 @@
         <v>38</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>44</v>
@@ -2748,7 +2729,7 @@
         <v>39</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>45</v>
@@ -2767,7 +2748,7 @@
         <v>40</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>46</v>
@@ -2786,7 +2767,7 @@
         <v>41</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>47</v>
@@ -2805,7 +2786,7 @@
         <v>42</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>48</v>
@@ -2826,7 +2807,7 @@
         <v>43</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>49</v>
@@ -2845,7 +2826,7 @@
         <v>44</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>50</v>
@@ -2864,7 +2845,7 @@
         <v>45</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>51</v>
@@ -2883,13 +2864,13 @@
         <v>46</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E55" s="18">
         <v>8</v>
@@ -2902,13 +2883,13 @@
         <v>47</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>53</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E56" s="18">
         <v>8</v>
@@ -2921,13 +2902,13 @@
         <v>48</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>54</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E57" s="18">
         <v>8</v>
@@ -2940,7 +2921,7 @@
         <v>49</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>55</v>
@@ -2959,7 +2940,7 @@
         <v>50</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>56</v>
@@ -2978,7 +2959,7 @@
         <v>51</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>57</v>
@@ -2997,13 +2978,13 @@
         <v>52</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>58</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E61" s="18">
         <v>8</v>
@@ -3016,7 +2997,7 @@
         <v>53</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>59</v>
@@ -3035,7 +3016,7 @@
         <v>54</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C63" s="18" t="s">
         <v>60</v>
@@ -3054,7 +3035,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C64" s="18" t="s">
         <v>61</v>
@@ -3073,13 +3054,13 @@
         <v>56</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C65" s="18" t="s">
         <v>62</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E65" s="18">
         <v>8</v>
@@ -3092,13 +3073,13 @@
         <v>57</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C66" s="18" t="s">
         <v>63</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E66" s="18">
         <v>8</v>
@@ -3111,7 +3092,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C67" s="18" t="s">
         <v>64</v>
@@ -3130,13 +3111,13 @@
         <v>59</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E68" s="18">
         <v>8</v>
@@ -3149,7 +3130,7 @@
         <v>60</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C69" s="18" t="s">
         <v>66</v>
@@ -3168,10 +3149,10 @@
         <v>61</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D70" s="18" t="s">
         <v>3</v>
@@ -3187,7 +3168,7 @@
         <v>62</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C71" s="18" t="s">
         <v>67</v>
@@ -3200,7 +3181,7 @@
       </c>
       <c r="F71" s="18"/>
       <c r="G71" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -3208,7 +3189,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>68</v>
@@ -3227,7 +3208,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>69</v>
@@ -3246,7 +3227,7 @@
         <v>65</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C74" s="18" t="s">
         <v>70</v>
@@ -3265,10 +3246,10 @@
         <v>66</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D75" s="18" t="s">
         <v>3</v>
@@ -3284,7 +3265,7 @@
         <v>67</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>72</v>
@@ -3303,7 +3284,7 @@
         <v>68</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C77" s="18" t="s">
         <v>73</v>
@@ -3322,7 +3303,7 @@
         <v>69</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C78" s="18" t="s">
         <v>74</v>
@@ -3341,7 +3322,7 @@
         <v>70</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>75</v>
@@ -3360,7 +3341,7 @@
         <v>71</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C80" s="18" t="s">
         <v>76</v>
@@ -3379,7 +3360,7 @@
         <v>72</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>77</v>
@@ -3398,7 +3379,7 @@
         <v>73</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C82" s="18" t="s">
         <v>78</v>
@@ -3417,7 +3398,7 @@
         <v>74</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C83" s="18" t="s">
         <v>79</v>
@@ -3436,7 +3417,7 @@
         <v>75</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C84" s="18" t="s">
         <v>80</v>
@@ -3455,7 +3436,7 @@
         <v>76</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C85" s="18" t="s">
         <v>146</v>
@@ -3476,7 +3457,7 @@
         <v>77</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C86" s="18" t="s">
         <v>81</v>
@@ -3495,13 +3476,13 @@
         <v>78</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>82</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E87" s="18">
         <v>100</v>
@@ -3514,13 +3495,13 @@
         <v>79</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C88" s="18" t="s">
         <v>83</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E88" s="18">
         <v>8</v>
@@ -3533,13 +3514,13 @@
         <v>80</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="18" t="s">
         <v>84</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E89" s="18">
         <v>8</v>
@@ -3552,13 +3533,13 @@
         <v>81</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C90" s="18" t="s">
         <v>85</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E90" s="18">
         <v>8</v>
@@ -3571,13 +3552,13 @@
         <v>82</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C91" s="18" t="s">
         <v>86</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E91" s="18">
         <v>8</v>
@@ -3590,7 +3571,7 @@
         <v>83</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C92" s="18" t="s">
         <v>87</v>
@@ -3609,7 +3590,7 @@
         <v>84</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C93" s="18" t="s">
         <v>88</v>
@@ -3628,13 +3609,13 @@
         <v>85</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="18" t="s">
         <v>89</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E94" s="18">
         <v>8</v>
@@ -3647,7 +3628,7 @@
         <v>86</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C95" s="18" t="s">
         <v>90</v>
@@ -3666,7 +3647,7 @@
         <v>87</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C96" s="18" t="s">
         <v>91</v>
@@ -3685,7 +3666,7 @@
         <v>88</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C97" s="18" t="s">
         <v>92</v>
@@ -3704,7 +3685,7 @@
         <v>89</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C98" s="18" t="s">
         <v>93</v>
@@ -3723,7 +3704,7 @@
         <v>90</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C99" s="18" t="s">
         <v>94</v>
@@ -3742,7 +3723,7 @@
         <v>91</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C100" s="18" t="s">
         <v>95</v>
@@ -3761,7 +3742,7 @@
         <v>92</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C101" s="18" t="s">
         <v>96</v>
@@ -3780,7 +3761,7 @@
         <v>93</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C102" s="18" t="s">
         <v>97</v>
@@ -3799,7 +3780,7 @@
         <v>94</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C103" s="18" t="s">
         <v>98</v>
@@ -3818,7 +3799,7 @@
         <v>95</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C104" s="18" t="s">
         <v>99</v>
@@ -3837,13 +3818,13 @@
         <v>96</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C105" s="18" t="s">
         <v>101</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E105" s="18">
         <v>8</v>
@@ -3856,7 +3837,7 @@
         <v>97</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C106" s="18" t="s">
         <v>102</v>
@@ -3875,7 +3856,7 @@
         <v>98</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C107" s="18" t="s">
         <v>103</v>
@@ -3894,13 +3875,13 @@
         <v>99</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C108" s="18" t="s">
         <v>104</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E108" s="18">
         <v>8</v>
@@ -3913,20 +3894,20 @@
         <v>100</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C109" s="18" t="s">
         <v>105</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E109" s="18">
         <v>8</v>
       </c>
       <c r="F109" s="18"/>
       <c r="G109" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -3934,7 +3915,7 @@
         <v>101</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C110" s="18" t="s">
         <v>116</v>
@@ -3955,13 +3936,13 @@
         <v>102</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C111" s="18" t="s">
         <v>117</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E111" s="18">
         <v>10</v>
@@ -3976,7 +3957,7 @@
         <v>103</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C112" s="18" t="s">
         <v>118</v>
@@ -3995,7 +3976,7 @@
         <v>104</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C113" s="18" t="s">
         <v>119</v>
@@ -4014,7 +3995,7 @@
         <v>105</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C114" s="18" t="s">
         <v>120</v>
@@ -4033,7 +4014,7 @@
         <v>106</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C115" s="18" t="s">
         <v>121</v>
@@ -4052,7 +4033,7 @@
         <v>107</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C116" s="18" t="s">
         <v>122</v>
@@ -4071,7 +4052,7 @@
         <v>108</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C117" s="18" t="s">
         <v>123</v>
@@ -4090,7 +4071,7 @@
         <v>109</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C118" s="18" t="s">
         <v>124</v>
@@ -4109,13 +4090,13 @@
         <v>110</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C119" s="18" t="s">
         <v>125</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E119" s="18">
         <v>8</v>
@@ -4128,13 +4109,13 @@
         <v>111</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C120" s="18" t="s">
         <v>126</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E120" s="18">
         <v>8</v>
@@ -4147,13 +4128,13 @@
         <v>112</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C121" s="18" t="s">
         <v>127</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E121" s="18">
         <v>20</v>
@@ -4166,13 +4147,13 @@
         <v>113</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C122" s="18" t="s">
         <v>128</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E122" s="18">
         <v>8</v>
@@ -4185,13 +4166,13 @@
         <v>114</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C123" s="18" t="s">
         <v>129</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E123" s="18">
         <v>8</v>
@@ -4204,13 +4185,13 @@
         <v>115</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C124" s="18" t="s">
         <v>130</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E124" s="18">
         <v>8</v>
@@ -4223,13 +4204,13 @@
         <v>116</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C125" s="18" t="s">
         <v>131</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E125" s="18">
         <v>8</v>
@@ -4242,13 +4223,13 @@
         <v>117</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C126" s="18" t="s">
         <v>132</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E126" s="18">
         <v>8</v>
@@ -4261,13 +4242,13 @@
         <v>118</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C127" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D127" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E127" s="18">
         <v>8</v>
@@ -4280,13 +4261,13 @@
         <v>119</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C128" s="18" t="s">
         <v>134</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E128" s="18">
         <v>20</v>
@@ -4299,7 +4280,7 @@
         <v>120</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C129" s="18" t="s">
         <v>135</v>
@@ -4318,7 +4299,7 @@
         <v>121</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C130" s="18" t="s">
         <v>136</v>
@@ -4337,7 +4318,7 @@
         <v>122</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C131" s="18" t="s">
         <v>137</v>
@@ -4356,7 +4337,7 @@
         <v>123</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C132" s="18" t="s">
         <v>138</v>
@@ -4375,7 +4356,7 @@
         <v>124</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C133" s="18" t="s">
         <v>139</v>
@@ -4394,13 +4375,13 @@
         <v>125</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C134" s="18" t="s">
         <v>140</v>
       </c>
       <c r="D134" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E134" s="18">
         <v>80</v>
@@ -4413,7 +4394,7 @@
         <v>126</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C135" s="18" t="s">
         <v>141</v>
@@ -4432,7 +4413,7 @@
         <v>127</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C136" s="18" t="s">
         <v>142</v>
@@ -4451,7 +4432,7 @@
         <v>128</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C137" s="18" t="s">
         <v>143</v>
@@ -4470,13 +4451,13 @@
         <v>129</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C138" s="18" t="s">
         <v>144</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E138" s="18">
         <v>8</v>
@@ -4489,13 +4470,13 @@
         <v>130</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C139" s="18" t="s">
         <v>145</v>
       </c>
       <c r="D139" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E139" s="18">
         <v>50</v>
@@ -4508,10 +4489,10 @@
         <v>131</v>
       </c>
       <c r="B140" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="C140" s="18" t="s">
         <v>297</v>
-      </c>
-      <c r="C140" s="18" t="s">
-        <v>298</v>
       </c>
       <c r="D140" s="18" t="s">
         <v>3</v>
@@ -4527,13 +4508,13 @@
         <v>132</v>
       </c>
       <c r="B141" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="C141" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="C141" s="18" t="s">
+      <c r="D141" s="18" t="s">
         <v>277</v>
-      </c>
-      <c r="D141" s="18" t="s">
-        <v>278</v>
       </c>
       <c r="E141" s="18"/>
       <c r="F141" s="18"/>
@@ -4544,10 +4525,10 @@
         <v>133</v>
       </c>
       <c r="B142" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C142" s="18" t="s">
         <v>279</v>
-      </c>
-      <c r="C142" s="18" t="s">
-        <v>280</v>
       </c>
       <c r="D142" s="18" t="s">
         <v>3</v>
@@ -4563,13 +4544,13 @@
         <v>134</v>
       </c>
       <c r="B143" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="C143" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="C143" s="18" t="s">
-        <v>282</v>
-      </c>
       <c r="D143" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E143" s="18"/>
       <c r="F143" s="18"/>
@@ -4580,10 +4561,10 @@
         <v>135</v>
       </c>
       <c r="B144" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="C144" s="18" t="s">
         <v>283</v>
-      </c>
-      <c r="C144" s="18" t="s">
-        <v>284</v>
       </c>
       <c r="D144" s="18" t="s">
         <v>3</v>
@@ -4612,12 +4593,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4641,153 +4622,164 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>305</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>310</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>270</v>
+      <c r="B16" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
